--- a/4/Tipo de cambio nominal 1994 a 2021 - Mensual.xlsx
+++ b/4/Tipo de cambio nominal 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
   <si>
     <t>Serie</t>
   </si>
@@ -1188,6 +1188,9 @@
   <si>
     <t>01-07-2021</t>
   </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1544,7 +1547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH332"/>
+  <dimension ref="A1:BH333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54042,6 +54045,188 @@
         <v>194.67</v>
       </c>
     </row>
+    <row r="333" spans="1:60">
+      <c r="A333" t="s">
+        <v>391</v>
+      </c>
+      <c r="B333">
+        <v>23.55</v>
+      </c>
+      <c r="C333">
+        <v>779.83</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>113.68</v>
+      </c>
+      <c r="F333">
+        <v>1.26</v>
+      </c>
+      <c r="G333">
+        <v>36.05</v>
+      </c>
+      <c r="H333">
+        <v>123.44</v>
+      </c>
+      <c r="I333">
+        <v>6.19</v>
+      </c>
+      <c r="J333">
+        <v>88.09</v>
+      </c>
+      <c r="K333">
+        <v>89.89</v>
+      </c>
+      <c r="L333">
+        <v>1108.89</v>
+      </c>
+      <c r="M333">
+        <v>212.37</v>
+      </c>
+      <c r="N333">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="O333">
+        <v>569.62</v>
+      </c>
+      <c r="P333">
+        <v>619.3</v>
+      </c>
+      <c r="Q333">
+        <v>779.83</v>
+      </c>
+      <c r="R333">
+        <v>779.83</v>
+      </c>
+      <c r="S333">
+        <v>371.7</v>
+      </c>
+      <c r="T333">
+        <v>951.01</v>
+      </c>
+      <c r="U333">
+        <v>779.83</v>
+      </c>
+      <c r="V333">
+        <v>575.4400000000001</v>
+      </c>
+      <c r="W333">
+        <v>100.19</v>
+      </c>
+      <c r="X333">
+        <v>543.8</v>
+      </c>
+      <c r="Y333">
+        <v>27.98</v>
+      </c>
+      <c r="Z333">
+        <v>0.03</v>
+      </c>
+      <c r="AA333">
+        <v>917.92</v>
+      </c>
+      <c r="AB333">
+        <v>2.61</v>
+      </c>
+      <c r="AC333">
+        <v>7.73</v>
+      </c>
+      <c r="AD333">
+        <v>853.14</v>
+      </c>
+      <c r="AE333">
+        <v>0.11</v>
+      </c>
+      <c r="AF333">
+        <v>29.28</v>
+      </c>
+      <c r="AG333">
+        <v>186.58</v>
+      </c>
+      <c r="AH333">
+        <v>49.78</v>
+      </c>
+      <c r="AI333">
+        <v>1076.41</v>
+      </c>
+      <c r="AJ333">
+        <v>92.02</v>
+      </c>
+      <c r="AK333">
+        <v>190.99</v>
+      </c>
+      <c r="AL333">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="AM333">
+        <v>0.2</v>
+      </c>
+      <c r="AN333">
+        <v>32.49</v>
+      </c>
+      <c r="AO333">
+        <v>13.71</v>
+      </c>
+      <c r="AP333">
+        <v>15.54</v>
+      </c>
+      <c r="AQ333">
+        <v>38.86</v>
+      </c>
+      <c r="AR333">
+        <v>18.07</v>
+      </c>
+      <c r="AS333">
+        <v>101.02</v>
+      </c>
+      <c r="AT333">
+        <v>52.78</v>
+      </c>
+      <c r="AU333">
+        <v>148.52</v>
+      </c>
+      <c r="AV333">
+        <v>0.02</v>
+      </c>
+      <c r="AW333">
+        <v>207.95</v>
+      </c>
+      <c r="AX333">
+        <v>184.82</v>
+      </c>
+      <c r="AY333">
+        <v>10.6</v>
+      </c>
+      <c r="AZ333">
+        <v>10.51</v>
+      </c>
+      <c r="BA333">
+        <v>0.05</v>
+      </c>
+      <c r="BB333">
+        <v>4.76</v>
+      </c>
+      <c r="BC333">
+        <v>241.92</v>
+      </c>
+      <c r="BD333">
+        <v>1.83</v>
+      </c>
+      <c r="BE333">
+        <v>0.67</v>
+      </c>
+      <c r="BF333">
+        <v>7.1</v>
+      </c>
+      <c r="BG333">
+        <v>120.41</v>
+      </c>
+      <c r="BH333">
+        <v>201.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 1994 a 2021 - Mensual.xlsx
+++ b/4/Tipo de cambio nominal 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
     <t>Serie</t>
   </si>
@@ -1191,6 +1191,9 @@
   <si>
     <t>01-08-2021</t>
   </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1547,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH333"/>
+  <dimension ref="A1:BH334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54227,6 +54230,188 @@
         <v>201.01</v>
       </c>
     </row>
+    <row r="334" spans="1:60">
+      <c r="A334" t="s">
+        <v>392</v>
+      </c>
+      <c r="B334">
+        <v>23.75</v>
+      </c>
+      <c r="C334">
+        <v>783.63</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>114.23</v>
+      </c>
+      <c r="F334">
+        <v>1.26</v>
+      </c>
+      <c r="G334">
+        <v>36.36</v>
+      </c>
+      <c r="H334">
+        <v>124.16</v>
+      </c>
+      <c r="I334">
+        <v>6.13</v>
+      </c>
+      <c r="J334">
+        <v>90.52</v>
+      </c>
+      <c r="K334">
+        <v>90.77</v>
+      </c>
+      <c r="L334">
+        <v>1114.05</v>
+      </c>
+      <c r="M334">
+        <v>213.41</v>
+      </c>
+      <c r="N334">
+        <v>87.88</v>
+      </c>
+      <c r="O334">
+        <v>573.8099999999999</v>
+      </c>
+      <c r="P334">
+        <v>619.05</v>
+      </c>
+      <c r="Q334">
+        <v>783.63</v>
+      </c>
+      <c r="R334">
+        <v>783.63</v>
+      </c>
+      <c r="S334">
+        <v>374.97</v>
+      </c>
+      <c r="T334">
+        <v>955.64</v>
+      </c>
+      <c r="U334">
+        <v>783.63</v>
+      </c>
+      <c r="V334">
+        <v>581.75</v>
+      </c>
+      <c r="W334">
+        <v>100.72</v>
+      </c>
+      <c r="X334">
+        <v>553.41</v>
+      </c>
+      <c r="Y334">
+        <v>28.3</v>
+      </c>
+      <c r="Z334">
+        <v>0.03</v>
+      </c>
+      <c r="AA334">
+        <v>923.2</v>
+      </c>
+      <c r="AB334">
+        <v>2.62</v>
+      </c>
+      <c r="AC334">
+        <v>7.75</v>
+      </c>
+      <c r="AD334">
+        <v>850.5</v>
+      </c>
+      <c r="AE334">
+        <v>0.11</v>
+      </c>
+      <c r="AF334">
+        <v>29.46</v>
+      </c>
+      <c r="AG334">
+        <v>186.73</v>
+      </c>
+      <c r="AH334">
+        <v>50.01</v>
+      </c>
+      <c r="AI334">
+        <v>1077.03</v>
+      </c>
+      <c r="AJ334">
+        <v>91.89</v>
+      </c>
+      <c r="AK334">
+        <v>190.92</v>
+      </c>
+      <c r="AL334">
+        <v>7.98</v>
+      </c>
+      <c r="AM334">
+        <v>0.2</v>
+      </c>
+      <c r="AN334">
+        <v>32.65</v>
+      </c>
+      <c r="AO334">
+        <v>13.88</v>
+      </c>
+      <c r="AP334">
+        <v>15.63</v>
+      </c>
+      <c r="AQ334">
+        <v>39.13</v>
+      </c>
+      <c r="AR334">
+        <v>18.41</v>
+      </c>
+      <c r="AS334">
+        <v>101.57</v>
+      </c>
+      <c r="AT334">
+        <v>53.89</v>
+      </c>
+      <c r="AU334">
+        <v>148.75</v>
+      </c>
+      <c r="AV334">
+        <v>0.02</v>
+      </c>
+      <c r="AW334">
+        <v>208.97</v>
+      </c>
+      <c r="AX334">
+        <v>188.18</v>
+      </c>
+      <c r="AY334">
+        <v>10.75</v>
+      </c>
+      <c r="AZ334">
+        <v>10.66</v>
+      </c>
+      <c r="BA334">
+        <v>0.06</v>
+      </c>
+      <c r="BB334">
+        <v>4.66</v>
+      </c>
+      <c r="BC334">
+        <v>244.51</v>
+      </c>
+      <c r="BD334">
+        <v>1.84</v>
+      </c>
+      <c r="BE334">
+        <v>0.67</v>
+      </c>
+      <c r="BF334">
+        <v>7.12</v>
+      </c>
+      <c r="BG334">
+        <v>121.4</v>
+      </c>
+      <c r="BH334">
+        <v>202.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 1994 a 2021 - Mensual.xlsx
+++ b/4/Tipo de cambio nominal 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>Serie</t>
   </si>
@@ -1194,6 +1194,9 @@
   <si>
     <t>01-09-2021</t>
   </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1550,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH334"/>
+  <dimension ref="A1:BH335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54412,6 +54415,188 @@
         <v>202.29</v>
       </c>
     </row>
+    <row r="335" spans="1:60">
+      <c r="A335" t="s">
+        <v>393</v>
+      </c>
+      <c r="B335">
+        <v>24.34</v>
+      </c>
+      <c r="C335">
+        <v>813.95</v>
+      </c>
+      <c r="D335">
+        <v>194.83</v>
+      </c>
+      <c r="E335">
+        <v>118.65</v>
+      </c>
+      <c r="F335">
+        <v>1.3</v>
+      </c>
+      <c r="G335">
+        <v>37.05</v>
+      </c>
+      <c r="H335">
+        <v>126.94</v>
+      </c>
+      <c r="I335">
+        <v>6.31</v>
+      </c>
+      <c r="J335">
+        <v>96.12</v>
+      </c>
+      <c r="K335">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L335">
+        <v>1149.54</v>
+      </c>
+      <c r="M335">
+        <v>221.66</v>
+      </c>
+      <c r="N335">
+        <v>89.97</v>
+      </c>
+      <c r="O335">
+        <v>601.92</v>
+      </c>
+      <c r="P335">
+        <v>653.76</v>
+      </c>
+      <c r="Q335">
+        <v>813.95</v>
+      </c>
+      <c r="R335">
+        <v>813.95</v>
+      </c>
+      <c r="S335">
+        <v>389.2</v>
+      </c>
+      <c r="T335">
+        <v>992.62</v>
+      </c>
+      <c r="U335">
+        <v>813.95</v>
+      </c>
+      <c r="V335">
+        <v>602.35</v>
+      </c>
+      <c r="W335">
+        <v>104.63</v>
+      </c>
+      <c r="X335">
+        <v>573.72</v>
+      </c>
+      <c r="Y335">
+        <v>29.15</v>
+      </c>
+      <c r="Z335">
+        <v>0.04</v>
+      </c>
+      <c r="AA335">
+        <v>944.3</v>
+      </c>
+      <c r="AB335">
+        <v>2.62</v>
+      </c>
+      <c r="AC335">
+        <v>7.94</v>
+      </c>
+      <c r="AD335">
+        <v>881.39</v>
+      </c>
+      <c r="AE335">
+        <v>0.12</v>
+      </c>
+      <c r="AF335">
+        <v>30.91</v>
+      </c>
+      <c r="AG335">
+        <v>190.94</v>
+      </c>
+      <c r="AH335">
+        <v>51.95</v>
+      </c>
+      <c r="AI335">
+        <v>1113.96</v>
+      </c>
+      <c r="AJ335">
+        <v>88.7</v>
+      </c>
+      <c r="AK335">
+        <v>202.57</v>
+      </c>
+      <c r="AL335">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="AM335">
+        <v>0.22</v>
+      </c>
+      <c r="AN335">
+        <v>33.91</v>
+      </c>
+      <c r="AO335">
+        <v>14.48</v>
+      </c>
+      <c r="AP335">
+        <v>16.04</v>
+      </c>
+      <c r="AQ335">
+        <v>39.84</v>
+      </c>
+      <c r="AR335">
+        <v>18.75</v>
+      </c>
+      <c r="AS335">
+        <v>105.45</v>
+      </c>
+      <c r="AT335">
+        <v>54.85</v>
+      </c>
+      <c r="AU335">
+        <v>147.19</v>
+      </c>
+      <c r="AV335">
+        <v>0.02</v>
+      </c>
+      <c r="AW335">
+        <v>217.05</v>
+      </c>
+      <c r="AX335">
+        <v>195.47</v>
+      </c>
+      <c r="AY335">
+        <v>11.41</v>
+      </c>
+      <c r="AZ335">
+        <v>10.86</v>
+      </c>
+      <c r="BA335">
+        <v>0.06</v>
+      </c>
+      <c r="BB335">
+        <v>4.74</v>
+      </c>
+      <c r="BC335">
+        <v>253.23</v>
+      </c>
+      <c r="BD335">
+        <v>1.91</v>
+      </c>
+      <c r="BE335">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF335">
+        <v>7.21</v>
+      </c>
+      <c r="BG335">
+        <v>126.79</v>
+      </c>
+      <c r="BH335">
+        <v>205.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
